--- a/UsersFine.xlsx
+++ b/UsersFine.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>UserId</t>
   </si>
@@ -29,34 +29,13 @@
     <t>Fine</t>
   </si>
   <si>
-    <t>DEF</t>
-  </si>
-  <si>
-    <t>ABC21</t>
-  </si>
-  <si>
-    <t>ABC@21</t>
-  </si>
-  <si>
-    <t>FEG</t>
-  </si>
-  <si>
-    <t>FEG21</t>
-  </si>
-  <si>
-    <t>FEG@21</t>
-  </si>
-  <si>
     <t>Mahesh</t>
   </si>
   <si>
     <t>Mahesh1234</t>
   </si>
   <si>
-    <t>maheshkambhampati159@gmail.com</t>
-  </si>
-  <si>
-    <t>Mahesh1509</t>
+    <t>kambhampatim@trainee.nrifintech.com</t>
   </si>
 </sst>
 </file>
@@ -64,13 +43,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <sz val="18.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="TimesNewRoman"/>
+      <sz val="16.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,102 +81,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="13.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.01171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.1328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="57.34375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.2265625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="n">
+      <c r="B3" t="n" s="2">
         <v>1.0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="n">
-        <v>380.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="F3" t="n" s="2">
         <v>0.0</v>
       </c>
     </row>
